--- a/Barracuda Test Project Timesheet.xlsx
+++ b/Barracuda Test Project Timesheet.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S Vaishali\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240" xr2:uid="{B2AFF128-C35C-4A66-8B3D-0FA69809E83F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DATE</t>
   </si>
@@ -109,13 +109,20 @@
   <si>
     <t>02:30PM</t>
   </si>
+  <si>
+    <t>09-25-2017</t>
+  </si>
+  <si>
+    <t>Testing the entire project.
+(Unit testing was done after developing each component)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -194,10 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +222,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,11 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92480D72-70AC-4511-A3A6-FEE87504A51E}">
-  <dimension ref="D1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,10 +633,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G5" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="H5" s="7">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -657,10 +667,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="G7" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="H7" s="7">
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -673,7 +683,7 @@
       <c r="F8" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="7">
@@ -697,46 +707,63 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="4:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="4:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="11">
-        <f>SUM(H2:H10)</f>
+      <c r="H13" s="11">
+        <f>SUM(H2:H11)</f>
         <v>1.2083333333333333</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
